--- a/biology/Zoologie/Iuridae/Iuridae.xlsx
+++ b/biology/Zoologie/Iuridae/Iuridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Iuridae sont une famille de scorpions.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les scorpions de cette famille se rencontrent en Grèce, en Turquie et en Irak[1].
-Leur présence est incertaine en Syrie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les scorpions de cette famille se rencontrent en Grèce, en Turquie et en Irak.
+Leur présence est incertaine en Syrie.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces scorpions sont de petite taille.
-Leur venin ne semble pas dangereux pour l'homme[1].
+Leur venin ne semble pas dangereux pour l'homme.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (21/09/2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (21/09/2022) :
 Anatoliurus Parmakelis, Dimitriadou, Gkigkiza, Karampatsou, Stathi, Fet, Yağmur &amp; Kovařík, 2022
 Calchas Birula, 1899
 Iurus Thorell, 1876
@@ -612,11 +630,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par Thorell en 1876 comme sous-famille des Pandinidae, elle est élevée au rang de famille par Pocock en 1893[2].
-Depuis la parution du Catalog of the Scorpions of the World en 2000[3], le genre Anuroctonus a été transféré aux Chactidae, le genre Caraboctonus aux Caraboctonidae et les genres Hadruroides et Hadrurus aux Hadruridae.
-Parmakelis, Dimitriadou, Gkigkiza, Karampatsou, Stathi, Fet, Yağmur et Kovařík en 2022 reconnaissent deux sous-familles : les Calchinae avec Calchas et Neocalchas et les Iurinae avec Iurus, Protoiurus, Anatoliurus, Letoiurus et Metaiurus[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par Thorell en 1876 comme sous-famille des Pandinidae, elle est élevée au rang de famille par Pocock en 1893.
+Depuis la parution du Catalog of the Scorpions of the World en 2000, le genre Anuroctonus a été transféré aux Chactidae, le genre Caraboctonus aux Caraboctonidae et les genres Hadruroides et Hadrurus aux Hadruridae.
+Parmakelis, Dimitriadou, Gkigkiza, Karampatsou, Stathi, Fet, Yağmur et Kovařík en 2022 reconnaissent deux sous-familles : les Calchinae avec Calchas et Neocalchas et les Iurinae avec Iurus, Protoiurus, Anatoliurus, Letoiurus et Metaiurus.
 </t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces scorpions sont très rares en captivité[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces scorpions sont très rares en captivité.
 </t>
         </is>
       </c>
@@ -676,7 +698,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Thorell, 1876 : « On the classification of Scorpions. » Annals and Magazine of Natural History, sér. 4, vol. 17, no 97, p. 1–15 (texte intégral).</t>
         </is>
